--- a/data/pca/factorExposure/factorExposure_2019-05-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1202372401718391</v>
+        <v>-0.07750029094557755</v>
       </c>
       <c r="C2">
-        <v>-0.02043880049140648</v>
+        <v>-0.0133162918958487</v>
       </c>
       <c r="D2">
-        <v>-0.01217076868744259</v>
+        <v>-0.03454857591979128</v>
       </c>
       <c r="E2">
-        <v>0.1148322334187221</v>
+        <v>0.109521992481115</v>
       </c>
       <c r="F2">
-        <v>0.08405523978823533</v>
+        <v>-0.09077718758061473</v>
       </c>
       <c r="G2">
-        <v>0.1201620679563973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08172275667124364</v>
+      </c>
+      <c r="H2">
+        <v>-0.08971154431756931</v>
+      </c>
+      <c r="I2">
+        <v>0.052655798343457</v>
+      </c>
+      <c r="J2">
+        <v>-0.005611349069196084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2095032403395824</v>
+        <v>-0.1628872710159531</v>
       </c>
       <c r="C3">
-        <v>0.07227176375921235</v>
+        <v>-0.07960837375547072</v>
       </c>
       <c r="D3">
-        <v>0.09022580665821674</v>
+        <v>0.05251772063643433</v>
       </c>
       <c r="E3">
-        <v>0.3268388164546077</v>
+        <v>0.2351352182325921</v>
       </c>
       <c r="F3">
-        <v>-0.002413215696843257</v>
+        <v>-0.3022587411272783</v>
       </c>
       <c r="G3">
-        <v>0.3350504379409838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.009109247973011839</v>
+      </c>
+      <c r="H3">
+        <v>-0.2570169834456172</v>
+      </c>
+      <c r="I3">
+        <v>0.1412854191217883</v>
+      </c>
+      <c r="J3">
+        <v>0.2498358766821977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1000133122131671</v>
+        <v>-0.0743125808979046</v>
       </c>
       <c r="C4">
-        <v>0.02130548798885458</v>
+        <v>-0.03278024298873076</v>
       </c>
       <c r="D4">
-        <v>0.00385869351227355</v>
+        <v>-0.02005144645658946</v>
       </c>
       <c r="E4">
-        <v>0.0879796306263321</v>
+        <v>0.03527531331834419</v>
       </c>
       <c r="F4">
-        <v>0.04597392456209235</v>
+        <v>-0.09273554530417588</v>
       </c>
       <c r="G4">
-        <v>0.03209122668508331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03624545665483944</v>
+      </c>
+      <c r="H4">
+        <v>-0.03868937467931089</v>
+      </c>
+      <c r="I4">
+        <v>0.03114695561416532</v>
+      </c>
+      <c r="J4">
+        <v>0.0430921842490842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01219873366104791</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003010194679154064</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0002343463082422861</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002306231262428102</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.009280009444607707</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0131340931518026</v>
+      </c>
+      <c r="H6">
+        <v>-0.002611158693750565</v>
+      </c>
+      <c r="I6">
+        <v>0.003034797141130305</v>
+      </c>
+      <c r="J6">
+        <v>-0.002933783243396357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04358477850026909</v>
+        <v>-0.0347347057077395</v>
       </c>
       <c r="C7">
-        <v>0.002447799787968317</v>
+        <v>-0.0170543213329402</v>
       </c>
       <c r="D7">
-        <v>-0.0244395989241251</v>
+        <v>-0.01750880447016281</v>
       </c>
       <c r="E7">
-        <v>0.07951340818306495</v>
+        <v>0.03226955937295287</v>
       </c>
       <c r="F7">
-        <v>-0.04037610513689739</v>
+        <v>-0.05357821680207316</v>
       </c>
       <c r="G7">
-        <v>0.01835836674970372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.013368934082372</v>
+      </c>
+      <c r="H7">
+        <v>-0.04424063605593947</v>
+      </c>
+      <c r="I7">
+        <v>0.006644882094095222</v>
+      </c>
+      <c r="J7">
+        <v>0.01801666887395138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04354767534369065</v>
+        <v>-0.03298671549928285</v>
       </c>
       <c r="C8">
-        <v>0.03227398517598768</v>
+        <v>-0.03440307711171582</v>
       </c>
       <c r="D8">
-        <v>0.01287356164386431</v>
+        <v>-0.004138952512354104</v>
       </c>
       <c r="E8">
-        <v>0.07489592314168055</v>
+        <v>0.03552965721126317</v>
       </c>
       <c r="F8">
-        <v>-0.005225094067754457</v>
+        <v>-0.08224548566588308</v>
       </c>
       <c r="G8">
-        <v>0.04943515831509148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.004809802605371047</v>
+      </c>
+      <c r="H8">
+        <v>-0.05292690841071698</v>
+      </c>
+      <c r="I8">
+        <v>0.0358223967432043</v>
+      </c>
+      <c r="J8">
+        <v>0.02804515125241554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08863096972830917</v>
+        <v>-0.06412700501098954</v>
       </c>
       <c r="C9">
-        <v>0.02142751722562994</v>
+        <v>-0.0328757069391054</v>
       </c>
       <c r="D9">
-        <v>-0.01111614088844377</v>
+        <v>-0.02097241669343426</v>
       </c>
       <c r="E9">
-        <v>0.07903064746137836</v>
+        <v>0.02901817660179434</v>
       </c>
       <c r="F9">
-        <v>0.02792370355169035</v>
+        <v>-0.09403646153060648</v>
       </c>
       <c r="G9">
-        <v>0.03093000615258935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02681264164590552</v>
+      </c>
+      <c r="H9">
+        <v>-0.03554777474434906</v>
+      </c>
+      <c r="I9">
+        <v>0.01534461311464349</v>
+      </c>
+      <c r="J9">
+        <v>0.006743171496380079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01801756571087116</v>
+        <v>-0.01006836394537012</v>
       </c>
       <c r="C10">
-        <v>-0.1648985145303019</v>
+        <v>0.1633915766693792</v>
       </c>
       <c r="D10">
-        <v>0.009848708611147108</v>
+        <v>0.005411367474730578</v>
       </c>
       <c r="E10">
-        <v>0.04223883710940465</v>
+        <v>0.04418491795870297</v>
       </c>
       <c r="F10">
-        <v>-0.0005588805680964347</v>
+        <v>-0.02977428132689598</v>
       </c>
       <c r="G10">
-        <v>-0.01238554338074539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01613592819834924</v>
+      </c>
+      <c r="H10">
+        <v>0.01903609421825028</v>
+      </c>
+      <c r="I10">
+        <v>0.1178337833382039</v>
+      </c>
+      <c r="J10">
+        <v>0.02439771134064669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05953469507106587</v>
+        <v>-0.05008015619832986</v>
       </c>
       <c r="C11">
-        <v>0.0003993478164129843</v>
+        <v>-0.01980633072221279</v>
       </c>
       <c r="D11">
-        <v>0.01476437521934723</v>
+        <v>-0.004655242267062062</v>
       </c>
       <c r="E11">
-        <v>0.04130264867569841</v>
+        <v>0.03786211532879878</v>
       </c>
       <c r="F11">
-        <v>0.003481929560479126</v>
+        <v>-0.02922579164362588</v>
       </c>
       <c r="G11">
-        <v>-0.008080838296883976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.004638664945846019</v>
+      </c>
+      <c r="H11">
+        <v>-0.01954382397505244</v>
+      </c>
+      <c r="I11">
+        <v>-0.01099288263089889</v>
+      </c>
+      <c r="J11">
+        <v>0.004365974577764704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04905967461687992</v>
+        <v>-0.04796827469311047</v>
       </c>
       <c r="C12">
-        <v>0.006000899408677041</v>
+        <v>-0.02011521111139036</v>
       </c>
       <c r="D12">
-        <v>0.008079353442731897</v>
+        <v>-0.006494475754096268</v>
       </c>
       <c r="E12">
-        <v>0.02613292566028953</v>
+        <v>0.01163358994093119</v>
       </c>
       <c r="F12">
-        <v>-0.001277746006884293</v>
+        <v>-0.02645562485313933</v>
       </c>
       <c r="G12">
-        <v>0.002397859315914629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001055747852894557</v>
+      </c>
+      <c r="H12">
+        <v>-0.009569847807833747</v>
+      </c>
+      <c r="I12">
+        <v>-0.01530191832773305</v>
+      </c>
+      <c r="J12">
+        <v>-0.001172760270773764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05842240924838248</v>
+        <v>-0.04014141430742829</v>
       </c>
       <c r="C13">
-        <v>0.01308682000864198</v>
+        <v>-0.01908192782184333</v>
       </c>
       <c r="D13">
-        <v>0.02777220165635733</v>
+        <v>-0.003619371536888195</v>
       </c>
       <c r="E13">
-        <v>0.1128845769951665</v>
+        <v>0.0792983595142273</v>
       </c>
       <c r="F13">
-        <v>0.01187202360083209</v>
+        <v>-0.06974734587960073</v>
       </c>
       <c r="G13">
-        <v>0.03840550886922726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.00303063746101604</v>
+      </c>
+      <c r="H13">
+        <v>-0.05459014668416631</v>
+      </c>
+      <c r="I13">
+        <v>0.01974698116328144</v>
+      </c>
+      <c r="J13">
+        <v>0.001823112049194426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03806227445013127</v>
+        <v>-0.02814714200924476</v>
       </c>
       <c r="C14">
-        <v>0.006425638382458437</v>
+        <v>-0.01516383795415477</v>
       </c>
       <c r="D14">
-        <v>-0.01273804358593936</v>
+        <v>-0.02017279599495165</v>
       </c>
       <c r="E14">
-        <v>0.02940580014329413</v>
+        <v>0.01952349618693231</v>
       </c>
       <c r="F14">
-        <v>-0.002849778558224715</v>
+        <v>-0.03668126770980104</v>
       </c>
       <c r="G14">
-        <v>0.04246943153793048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.009782006492546744</v>
+      </c>
+      <c r="H14">
+        <v>-0.05973968183463352</v>
+      </c>
+      <c r="I14">
+        <v>0.02621815370889456</v>
+      </c>
+      <c r="J14">
+        <v>0.0005109942564962505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05167258346364653</v>
+        <v>-0.04280600847047876</v>
       </c>
       <c r="C16">
-        <v>0.01967193595862518</v>
+        <v>-0.02811677567786907</v>
       </c>
       <c r="D16">
-        <v>0.02443458804017002</v>
+        <v>0.002342375964394505</v>
       </c>
       <c r="E16">
-        <v>0.0365874570310598</v>
+        <v>0.03141190241223593</v>
       </c>
       <c r="F16">
-        <v>-0.0005393617040805003</v>
+        <v>-0.03146993437778812</v>
       </c>
       <c r="G16">
-        <v>-0.007095956809829478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.001017888307710212</v>
+      </c>
+      <c r="H16">
+        <v>-0.01946953627219788</v>
+      </c>
+      <c r="I16">
+        <v>-0.009735246860041876</v>
+      </c>
+      <c r="J16">
+        <v>0.006114082880601824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05019773415816647</v>
+        <v>-0.04539425971290791</v>
       </c>
       <c r="C19">
-        <v>0.02579207875670872</v>
+        <v>-0.03548428189453814</v>
       </c>
       <c r="D19">
-        <v>0.01363369300291787</v>
+        <v>-0.003275581827995921</v>
       </c>
       <c r="E19">
-        <v>0.08024742758851121</v>
+        <v>0.06297034664110603</v>
       </c>
       <c r="F19">
-        <v>-0.008424719294353622</v>
+        <v>-0.07402012985831383</v>
       </c>
       <c r="G19">
-        <v>0.05677952158627877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01006288626145236</v>
+      </c>
+      <c r="H19">
+        <v>-0.07726964605850029</v>
+      </c>
+      <c r="I19">
+        <v>0.05723044870876698</v>
+      </c>
+      <c r="J19">
+        <v>-0.002410266840279707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03768095009509331</v>
+        <v>-0.01898361984348367</v>
       </c>
       <c r="C20">
-        <v>0.03030998263150416</v>
+        <v>-0.03247220830793763</v>
       </c>
       <c r="D20">
-        <v>0.003320713662181511</v>
+        <v>-0.009865668705342077</v>
       </c>
       <c r="E20">
-        <v>0.07194167742681572</v>
+        <v>0.04081022283318549</v>
       </c>
       <c r="F20">
-        <v>-0.01658113211732477</v>
+        <v>-0.06801176936364557</v>
       </c>
       <c r="G20">
-        <v>0.04725817463292298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01149658436421928</v>
+      </c>
+      <c r="H20">
+        <v>-0.07480131298141671</v>
+      </c>
+      <c r="I20">
+        <v>0.02154530212653775</v>
+      </c>
+      <c r="J20">
+        <v>0.04082479577920362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03777035249281668</v>
+        <v>-0.01762887071490368</v>
       </c>
       <c r="C21">
-        <v>0.01181360065870377</v>
+        <v>-0.02255987295015126</v>
       </c>
       <c r="D21">
-        <v>0.02543006339999104</v>
+        <v>0.01070644144508808</v>
       </c>
       <c r="E21">
-        <v>0.09539356810427779</v>
+        <v>0.04428022163093003</v>
       </c>
       <c r="F21">
-        <v>0.03709914645088218</v>
+        <v>-0.07340835397010848</v>
       </c>
       <c r="G21">
-        <v>0.04786009821913869</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01694575178901658</v>
+      </c>
+      <c r="H21">
+        <v>-0.04550512290076208</v>
+      </c>
+      <c r="I21">
+        <v>-0.001418275928558084</v>
+      </c>
+      <c r="J21">
+        <v>-0.01512307241954625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04704496321945841</v>
+        <v>-0.04065562968551566</v>
       </c>
       <c r="C24">
-        <v>0.01048934145733594</v>
+        <v>-0.01722478865838272</v>
       </c>
       <c r="D24">
-        <v>0.01224376150469255</v>
+        <v>-0.004347711395504935</v>
       </c>
       <c r="E24">
-        <v>0.05124476605682282</v>
+        <v>0.03455882304429354</v>
       </c>
       <c r="F24">
-        <v>0.001018716139687014</v>
+        <v>-0.03409554135811404</v>
       </c>
       <c r="G24">
-        <v>-0.01065892307982952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.008061868816819305</v>
+      </c>
+      <c r="H24">
+        <v>-0.0151600376041355</v>
+      </c>
+      <c r="I24">
+        <v>-0.007984882656919792</v>
+      </c>
+      <c r="J24">
+        <v>0.01166322398325328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05038497454354698</v>
+        <v>-0.04341973441737658</v>
       </c>
       <c r="C25">
-        <v>0.002309589054159071</v>
+        <v>-0.01883780174115642</v>
       </c>
       <c r="D25">
-        <v>0.01382702575719292</v>
+        <v>-0.002008822546839895</v>
       </c>
       <c r="E25">
-        <v>0.04121669547400753</v>
+        <v>0.03344602657145314</v>
       </c>
       <c r="F25">
-        <v>0.003283387293443807</v>
+        <v>-0.03656091083044014</v>
       </c>
       <c r="G25">
-        <v>-0.01021421091149697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0009503216622922185</v>
+      </c>
+      <c r="H25">
+        <v>-0.01119661772810863</v>
+      </c>
+      <c r="I25">
+        <v>-0.01061595586582061</v>
+      </c>
+      <c r="J25">
+        <v>0.0007488717218377445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.00252191831013836</v>
+        <v>-0.01013680551726439</v>
       </c>
       <c r="C26">
-        <v>0.01651471894800972</v>
+        <v>-0.01707030589765021</v>
       </c>
       <c r="D26">
-        <v>-0.001181614683809067</v>
+        <v>0.004806503280528024</v>
       </c>
       <c r="E26">
-        <v>0.05475133525856166</v>
+        <v>0.04687871969046863</v>
       </c>
       <c r="F26">
-        <v>0.02190284876280501</v>
+        <v>-0.03693584668208382</v>
       </c>
       <c r="G26">
-        <v>0.01726475274388729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0103230781732929</v>
+      </c>
+      <c r="H26">
+        <v>-0.03547135067097611</v>
+      </c>
+      <c r="I26">
+        <v>0.003330417619499568</v>
+      </c>
+      <c r="J26">
+        <v>0.01458997245757987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1095565250490348</v>
+        <v>-0.087721910600238</v>
       </c>
       <c r="C27">
-        <v>0.01032047352681392</v>
+        <v>-0.02556896462633601</v>
       </c>
       <c r="D27">
-        <v>-0.004508447231795364</v>
+        <v>-0.02878519889537237</v>
       </c>
       <c r="E27">
-        <v>0.1095420956559074</v>
+        <v>0.04392771086152131</v>
       </c>
       <c r="F27">
-        <v>0.002855025776993547</v>
+        <v>-0.07798692525502211</v>
       </c>
       <c r="G27">
-        <v>-0.01840794794000263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0006174412494211047</v>
+      </c>
+      <c r="H27">
+        <v>-0.01042222417805969</v>
+      </c>
+      <c r="I27">
+        <v>0.007754997015277459</v>
+      </c>
+      <c r="J27">
+        <v>0.02157844827287427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02097141232645245</v>
+        <v>-0.02011455728767229</v>
       </c>
       <c r="C28">
-        <v>-0.2411088807120101</v>
+        <v>0.2337227276302557</v>
       </c>
       <c r="D28">
-        <v>0.01847580933628589</v>
+        <v>0.008688655568716293</v>
       </c>
       <c r="E28">
-        <v>0.02307087146006998</v>
+        <v>0.0335115440774787</v>
       </c>
       <c r="F28">
-        <v>0.001690351563789247</v>
+        <v>-0.02021102096720253</v>
       </c>
       <c r="G28">
-        <v>-0.04522365860856752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01928356544389748</v>
+      </c>
+      <c r="H28">
+        <v>0.04473534008119102</v>
+      </c>
+      <c r="I28">
+        <v>0.1604553801415959</v>
+      </c>
+      <c r="J28">
+        <v>0.04959348091456973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02131509838056112</v>
+        <v>-0.019320505812645</v>
       </c>
       <c r="C29">
-        <v>0.01581264584023089</v>
+        <v>-0.01863290779562174</v>
       </c>
       <c r="D29">
-        <v>-0.01246188970186975</v>
+        <v>-0.01750018715784806</v>
       </c>
       <c r="E29">
-        <v>0.04410702490375244</v>
+        <v>0.01511142616894454</v>
       </c>
       <c r="F29">
-        <v>0.01272974578904107</v>
+        <v>-0.04342892222881664</v>
       </c>
       <c r="G29">
-        <v>0.04597014843923568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01347628014898715</v>
+      </c>
+      <c r="H29">
+        <v>-0.05854870009341543</v>
+      </c>
+      <c r="I29">
+        <v>0.0151064542710854</v>
+      </c>
+      <c r="J29">
+        <v>-0.001802378847147461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1038501859267537</v>
+        <v>-0.1003450506891492</v>
       </c>
       <c r="C30">
-        <v>0.005182893877957739</v>
+        <v>-0.03430925528272625</v>
       </c>
       <c r="D30">
-        <v>0.002517456141086558</v>
+        <v>-0.02836576663401201</v>
       </c>
       <c r="E30">
-        <v>0.1312353105529657</v>
+        <v>0.09078360246084088</v>
       </c>
       <c r="F30">
-        <v>0.01651929032030845</v>
+        <v>-0.07988304552447885</v>
       </c>
       <c r="G30">
-        <v>-0.0717101731781053</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01601187838625548</v>
+      </c>
+      <c r="H30">
+        <v>-0.01328934011375269</v>
+      </c>
+      <c r="I30">
+        <v>-0.02714346737440964</v>
+      </c>
+      <c r="J30">
+        <v>-0.01391035727661632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05607859435511809</v>
+        <v>-0.05697860081548579</v>
       </c>
       <c r="C31">
-        <v>0.008186745566739543</v>
+        <v>-0.017382356578861</v>
       </c>
       <c r="D31">
-        <v>-0.0159195454863581</v>
+        <v>-0.01495167242831332</v>
       </c>
       <c r="E31">
-        <v>-0.00721149788837653</v>
+        <v>0.01714994790810728</v>
       </c>
       <c r="F31">
-        <v>0.01933539221136533</v>
+        <v>0.0008955428464000137</v>
       </c>
       <c r="G31">
-        <v>0.02216998430546008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03682235039468376</v>
+      </c>
+      <c r="H31">
+        <v>-0.04916505623357104</v>
+      </c>
+      <c r="I31">
+        <v>0.02386281704625604</v>
+      </c>
+      <c r="J31">
+        <v>-0.001138179384100804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06691099472732742</v>
+        <v>-0.04554414466936431</v>
       </c>
       <c r="C32">
-        <v>0.02149255504996574</v>
+        <v>-0.04418856409010229</v>
       </c>
       <c r="D32">
-        <v>0.006354405313158743</v>
+        <v>-0.0155529841514466</v>
       </c>
       <c r="E32">
-        <v>0.1248169490368429</v>
+        <v>0.05785140766671438</v>
       </c>
       <c r="F32">
-        <v>-0.02078705613192368</v>
+        <v>-0.09161612272265128</v>
       </c>
       <c r="G32">
-        <v>0.02915772681831768</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01625617116686</v>
+      </c>
+      <c r="H32">
+        <v>-0.05364748437112884</v>
+      </c>
+      <c r="I32">
+        <v>0.02944646897971049</v>
+      </c>
+      <c r="J32">
+        <v>-0.01422441080398112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.0697967614114465</v>
+        <v>-0.05853190530137502</v>
       </c>
       <c r="C33">
-        <v>0.02432640006071826</v>
+        <v>-0.0434214189087376</v>
       </c>
       <c r="D33">
-        <v>0.003153417805393681</v>
+        <v>-0.001684435073542995</v>
       </c>
       <c r="E33">
-        <v>0.07706703929947191</v>
+        <v>0.06377331359918277</v>
       </c>
       <c r="F33">
-        <v>0.03327528275106791</v>
+        <v>-0.06108814373694695</v>
       </c>
       <c r="G33">
-        <v>0.02316611448845785</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01619069705601455</v>
+      </c>
+      <c r="H33">
+        <v>-0.05194206084106781</v>
+      </c>
+      <c r="I33">
+        <v>-0.006747541478137121</v>
+      </c>
+      <c r="J33">
+        <v>0.003117112719091949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04756661585770269</v>
+        <v>-0.04254183943053111</v>
       </c>
       <c r="C34">
-        <v>0.01063210673894431</v>
+        <v>-0.02326161043386917</v>
       </c>
       <c r="D34">
-        <v>0.0100670482789137</v>
+        <v>-0.007760118238740748</v>
       </c>
       <c r="E34">
-        <v>0.02409983261002887</v>
+        <v>0.02553337017660166</v>
       </c>
       <c r="F34">
-        <v>-0.00556859114841346</v>
+        <v>-0.02866652142291324</v>
       </c>
       <c r="G34">
-        <v>0.009261776729428182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0002079723484904415</v>
+      </c>
+      <c r="H34">
+        <v>-0.02238493810548775</v>
+      </c>
+      <c r="I34">
+        <v>-0.01014581920916349</v>
+      </c>
+      <c r="J34">
+        <v>-0.004635622301876553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01238822154710731</v>
+        <v>-0.01383973520288715</v>
       </c>
       <c r="C36">
-        <v>-0.009919666509803917</v>
+        <v>-0.0008049402134340726</v>
       </c>
       <c r="D36">
-        <v>-0.003320366834565848</v>
+        <v>-0.005895248765760632</v>
       </c>
       <c r="E36">
-        <v>0.0255559826873376</v>
+        <v>0.01742246738532345</v>
       </c>
       <c r="F36">
-        <v>0.01043872622871394</v>
+        <v>-0.02661144156454049</v>
       </c>
       <c r="G36">
-        <v>0.01268218526108811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01488342453436699</v>
+      </c>
+      <c r="H36">
+        <v>-0.03426803352306955</v>
+      </c>
+      <c r="I36">
+        <v>0.01051217721318077</v>
+      </c>
+      <c r="J36">
+        <v>-0.0093004367228538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05391950550016932</v>
+        <v>-0.03044665943576315</v>
       </c>
       <c r="C38">
-        <v>0.001596503791762511</v>
+        <v>-0.007738553067949799</v>
       </c>
       <c r="D38">
-        <v>-0.01565948924828682</v>
+        <v>-0.005968724838780227</v>
       </c>
       <c r="E38">
-        <v>0.04159238911399588</v>
+        <v>0.02898160543481047</v>
       </c>
       <c r="F38">
-        <v>0.01141543871435475</v>
+        <v>-0.04490780528207405</v>
       </c>
       <c r="G38">
-        <v>0.03425994140151777</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02296579485851439</v>
+      </c>
+      <c r="H38">
+        <v>-0.01863280362936882</v>
+      </c>
+      <c r="I38">
+        <v>0.005110012534789861</v>
+      </c>
+      <c r="J38">
+        <v>-0.02931233896625381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.0764914141397226</v>
+        <v>-0.06139590026257338</v>
       </c>
       <c r="C39">
-        <v>0.01102280914586786</v>
+        <v>-0.03485651741506359</v>
       </c>
       <c r="D39">
-        <v>0.007317877346154591</v>
+        <v>-0.01813988318805918</v>
       </c>
       <c r="E39">
-        <v>0.04635315204570572</v>
+        <v>0.04962235424249561</v>
       </c>
       <c r="F39">
-        <v>0.01804918823843848</v>
+        <v>-0.03723009196779638</v>
       </c>
       <c r="G39">
-        <v>-0.009105655067669253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01107966149875168</v>
+      </c>
+      <c r="H39">
+        <v>-0.01992738350127303</v>
+      </c>
+      <c r="I39">
+        <v>-0.02276629167618146</v>
+      </c>
+      <c r="J39">
+        <v>-0.007324566778324014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07220879026782964</v>
+        <v>-0.05696262262923301</v>
       </c>
       <c r="C40">
-        <v>0.02351645054272117</v>
+        <v>-0.03242182812438029</v>
       </c>
       <c r="D40">
-        <v>0.01739182829986664</v>
+        <v>-0.01936870514612419</v>
       </c>
       <c r="E40">
-        <v>0.1157578107138671</v>
+        <v>0.08880242243555335</v>
       </c>
       <c r="F40">
-        <v>0.02331090359383095</v>
+        <v>-0.06921164451301726</v>
       </c>
       <c r="G40">
-        <v>0.08155018416482875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.002250661226702324</v>
+      </c>
+      <c r="H40">
+        <v>-0.07922136332198629</v>
+      </c>
+      <c r="I40">
+        <v>0.0160711668503211</v>
+      </c>
+      <c r="J40">
+        <v>0.02179326487990193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.004315613387781294</v>
+        <v>-0.000871760266767915</v>
       </c>
       <c r="C41">
-        <v>0.01037287064132108</v>
+        <v>-0.0103981661036874</v>
       </c>
       <c r="D41">
-        <v>-0.01194606089740071</v>
+        <v>-0.003158518771031989</v>
       </c>
       <c r="E41">
-        <v>0.01670868184743602</v>
+        <v>0.00794625730555179</v>
       </c>
       <c r="F41">
-        <v>0.02294678673526751</v>
+        <v>-0.01643551723160571</v>
       </c>
       <c r="G41">
-        <v>0.02828616068591235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02551887094085297</v>
+      </c>
+      <c r="H41">
+        <v>-0.03885947019316648</v>
+      </c>
+      <c r="I41">
+        <v>0.02967074290666566</v>
+      </c>
+      <c r="J41">
+        <v>0.009912913494319575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.137295402584197</v>
+        <v>-0.2427676978230534</v>
       </c>
       <c r="C42">
-        <v>0.1714288086977732</v>
+        <v>-0.101177254562998</v>
       </c>
       <c r="D42">
-        <v>0.9193689498047479</v>
+        <v>0.9111086069292312</v>
       </c>
       <c r="E42">
-        <v>-0.1590545122408407</v>
+        <v>0.03983920425599211</v>
       </c>
       <c r="F42">
-        <v>-0.02785555621179222</v>
+        <v>0.2564939771043944</v>
       </c>
       <c r="G42">
-        <v>-0.1564523973023467</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.007364760288416922</v>
+      </c>
+      <c r="H42">
+        <v>0.02509543221084613</v>
+      </c>
+      <c r="I42">
+        <v>0.04961643703240234</v>
+      </c>
+      <c r="J42">
+        <v>0.01500935424111702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008422945040637056</v>
+        <v>-0.00244466876439352</v>
       </c>
       <c r="C43">
-        <v>0.01329389420443658</v>
+        <v>-0.01338004255335256</v>
       </c>
       <c r="D43">
-        <v>-0.01091693110780194</v>
+        <v>-0.003374945860937882</v>
       </c>
       <c r="E43">
-        <v>0.03901095755330798</v>
+        <v>0.01874016036883024</v>
       </c>
       <c r="F43">
-        <v>-0.001299251305620183</v>
+        <v>-0.02512112821367226</v>
       </c>
       <c r="G43">
-        <v>0.02354022778303702</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006805166325912122</v>
+      </c>
+      <c r="H43">
+        <v>-0.03679053557251523</v>
+      </c>
+      <c r="I43">
+        <v>0.0188550095115487</v>
+      </c>
+      <c r="J43">
+        <v>0.008598728863254596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.0443125520633169</v>
+        <v>-0.02846803743206893</v>
       </c>
       <c r="C44">
-        <v>0.0307453072761078</v>
+        <v>-0.03058377736796195</v>
       </c>
       <c r="D44">
-        <v>0.01154485325611735</v>
+        <v>0.003127840222602434</v>
       </c>
       <c r="E44">
-        <v>0.1176414479796563</v>
+        <v>0.07938176747561732</v>
       </c>
       <c r="F44">
-        <v>0.05469219075315518</v>
+        <v>-0.09715736195990311</v>
       </c>
       <c r="G44">
-        <v>0.122169902838013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02493249376000203</v>
+      </c>
+      <c r="H44">
+        <v>-0.1169579007963618</v>
+      </c>
+      <c r="I44">
+        <v>0.03908646962659794</v>
+      </c>
+      <c r="J44">
+        <v>0.0003991959596010796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02276855067483679</v>
+        <v>-0.02120510472549916</v>
       </c>
       <c r="C46">
-        <v>0.01291432077492241</v>
+        <v>-0.02540324966450116</v>
       </c>
       <c r="D46">
-        <v>-0.01862833243171858</v>
+        <v>-0.01556441873514625</v>
       </c>
       <c r="E46">
-        <v>0.02942319459213421</v>
+        <v>0.03066535459967805</v>
       </c>
       <c r="F46">
-        <v>0.02481442555911346</v>
+        <v>-0.03822033879551442</v>
       </c>
       <c r="G46">
-        <v>0.0430053668807551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01382919721908218</v>
+      </c>
+      <c r="H46">
+        <v>-0.06121917322884997</v>
+      </c>
+      <c r="I46">
+        <v>0.02117687767593717</v>
+      </c>
+      <c r="J46">
+        <v>0.01642302776163587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08006334768051615</v>
+        <v>-0.08839967724621883</v>
       </c>
       <c r="C47">
-        <v>0.003326978511992371</v>
+        <v>-0.01621868246969777</v>
       </c>
       <c r="D47">
-        <v>-0.01720376727051563</v>
+        <v>-0.02184790641459166</v>
       </c>
       <c r="E47">
-        <v>-0.007963008614841083</v>
+        <v>0.001157669324259714</v>
       </c>
       <c r="F47">
-        <v>0.0109999834149123</v>
+        <v>0.0008609893574611575</v>
       </c>
       <c r="G47">
-        <v>0.04726517229362974</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03121975300129924</v>
+      </c>
+      <c r="H47">
+        <v>-0.0688546549975356</v>
+      </c>
+      <c r="I47">
+        <v>0.03200072207655143</v>
+      </c>
+      <c r="J47">
+        <v>0.01000162666858822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01458471124972837</v>
+        <v>-0.0145756057384577</v>
       </c>
       <c r="C48">
-        <v>0.01494415020229182</v>
+        <v>-0.01884953175257597</v>
       </c>
       <c r="D48">
-        <v>-0.008861026774227459</v>
+        <v>-0.004307952449454706</v>
       </c>
       <c r="E48">
-        <v>0.03929250516585332</v>
+        <v>0.02089205327613974</v>
       </c>
       <c r="F48">
-        <v>0.01703168569553761</v>
+        <v>-0.03585746087792983</v>
       </c>
       <c r="G48">
-        <v>0.01124118542892057</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.00970498391701485</v>
+      </c>
+      <c r="H48">
+        <v>-0.02380465923484734</v>
+      </c>
+      <c r="I48">
+        <v>0.01789343644364001</v>
+      </c>
+      <c r="J48">
+        <v>0.00663993299908924</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07851903368040763</v>
+        <v>-0.08115005288361747</v>
       </c>
       <c r="C50">
-        <v>0.01604901425951907</v>
+        <v>-0.03030141257812807</v>
       </c>
       <c r="D50">
-        <v>-0.02068827475254658</v>
+        <v>-0.01520882617783805</v>
       </c>
       <c r="E50">
-        <v>-0.01649843000143165</v>
+        <v>0.001983739399949651</v>
       </c>
       <c r="F50">
-        <v>0.0137021970065924</v>
+        <v>-0.009349717269009105</v>
       </c>
       <c r="G50">
-        <v>0.02593823837347201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.005230387882715291</v>
+      </c>
+      <c r="H50">
+        <v>-0.04906052113415935</v>
+      </c>
+      <c r="I50">
+        <v>0.01659442060467433</v>
+      </c>
+      <c r="J50">
+        <v>-0.03472534975909387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06788059070431007</v>
+        <v>-0.04734098564204132</v>
       </c>
       <c r="C51">
-        <v>-0.02361683202367241</v>
+        <v>0.003124246957650778</v>
       </c>
       <c r="D51">
-        <v>0.01165781568639101</v>
+        <v>-0.007782140656846981</v>
       </c>
       <c r="E51">
-        <v>0.07912767296457053</v>
+        <v>0.08127740059512348</v>
       </c>
       <c r="F51">
-        <v>0.05403644453178697</v>
+        <v>-0.05772448877165292</v>
       </c>
       <c r="G51">
-        <v>0.01800576329907222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04208174377068472</v>
+      </c>
+      <c r="H51">
+        <v>-0.05772674992931037</v>
+      </c>
+      <c r="I51">
+        <v>0.0482143190271685</v>
+      </c>
+      <c r="J51">
+        <v>0.004850225186697611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1479703145095243</v>
+        <v>-0.1299912359938651</v>
       </c>
       <c r="C53">
-        <v>0.003114057012395201</v>
+        <v>-0.03674924001996268</v>
       </c>
       <c r="D53">
-        <v>-0.04472354614506745</v>
+        <v>-0.0464344986039569</v>
       </c>
       <c r="E53">
-        <v>-0.02250593004783554</v>
+        <v>-0.01841203481922043</v>
       </c>
       <c r="F53">
-        <v>0.002681516169828346</v>
+        <v>0.0188997423548243</v>
       </c>
       <c r="G53">
-        <v>0.02009376109725212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02607047550874589</v>
+      </c>
+      <c r="H53">
+        <v>-0.01143149387498928</v>
+      </c>
+      <c r="I53">
+        <v>0.02487615856300513</v>
+      </c>
+      <c r="J53">
+        <v>0.0638579468093303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02601495699980208</v>
+        <v>-0.02445984911343043</v>
       </c>
       <c r="C54">
-        <v>-0.006655271858753131</v>
+        <v>-0.005091520864183307</v>
       </c>
       <c r="D54">
-        <v>-0.01488341595997573</v>
+        <v>-0.02294766131526881</v>
       </c>
       <c r="E54">
-        <v>0.0439476462721172</v>
+        <v>0.01585736671314656</v>
       </c>
       <c r="F54">
-        <v>0.03394064682715341</v>
+        <v>-0.04238915373879543</v>
       </c>
       <c r="G54">
-        <v>0.05321102834608971</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02480945443519915</v>
+      </c>
+      <c r="H54">
+        <v>-0.06551570080726804</v>
+      </c>
+      <c r="I54">
+        <v>0.04384410197563271</v>
+      </c>
+      <c r="J54">
+        <v>-0.007596190615615085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09977714833414511</v>
+        <v>-0.1022462338778508</v>
       </c>
       <c r="C55">
-        <v>-0.003955683427026412</v>
+        <v>-0.02043724515065721</v>
       </c>
       <c r="D55">
-        <v>-0.0369372282980446</v>
+        <v>-0.02991559682577543</v>
       </c>
       <c r="E55">
-        <v>0.009888155586773108</v>
+        <v>-0.03259128190821092</v>
       </c>
       <c r="F55">
-        <v>-0.02243300663529411</v>
+        <v>-0.006843407666307481</v>
       </c>
       <c r="G55">
-        <v>0.007522823942976647</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.009017678110949029</v>
+      </c>
+      <c r="H55">
+        <v>-0.02989666822660497</v>
+      </c>
+      <c r="I55">
+        <v>0.006186858255123878</v>
+      </c>
+      <c r="J55">
+        <v>0.06063025794041527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1800042339059767</v>
+        <v>-0.1689004135359212</v>
       </c>
       <c r="C56">
-        <v>-0.02473166029712288</v>
+        <v>-0.01835290327175864</v>
       </c>
       <c r="D56">
-        <v>-0.08637145681428189</v>
+        <v>-0.08810648330722759</v>
       </c>
       <c r="E56">
-        <v>-0.05489633238689996</v>
+        <v>-0.06195883700050039</v>
       </c>
       <c r="F56">
-        <v>-0.05018051064116422</v>
+        <v>0.03892888567525311</v>
       </c>
       <c r="G56">
-        <v>-0.005859609230202922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01571485421102828</v>
+      </c>
+      <c r="H56">
+        <v>0.03067863784748656</v>
+      </c>
+      <c r="I56">
+        <v>-0.01995418406521712</v>
+      </c>
+      <c r="J56">
+        <v>0.08701348538091425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09173789477903097</v>
+        <v>-0.07134029920055371</v>
       </c>
       <c r="C57">
-        <v>0.0172839390069549</v>
+        <v>-0.02470508124936873</v>
       </c>
       <c r="D57">
-        <v>-0.01438595069706659</v>
+        <v>-0.009386016156582948</v>
       </c>
       <c r="E57">
-        <v>0.07205960951922122</v>
+        <v>0.05468801616885763</v>
       </c>
       <c r="F57">
-        <v>0.005291306911940175</v>
+        <v>-0.05334099708132228</v>
       </c>
       <c r="G57">
-        <v>0.04282706414137415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.001711678335381256</v>
+      </c>
+      <c r="H57">
+        <v>-0.04744742859102435</v>
+      </c>
+      <c r="I57">
+        <v>-0.007163765907341787</v>
+      </c>
+      <c r="J57">
+        <v>0.02221974114711724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1603836635602826</v>
+        <v>-0.1957598123213158</v>
       </c>
       <c r="C58">
-        <v>-0.001329865338939876</v>
+        <v>-0.04045240758219001</v>
       </c>
       <c r="D58">
-        <v>0.06896945857676069</v>
+        <v>0.01846295140829627</v>
       </c>
       <c r="E58">
-        <v>0.1096504279018783</v>
+        <v>0.1386039747908927</v>
       </c>
       <c r="F58">
-        <v>-0.1061165117462853</v>
+        <v>-0.1052003565646155</v>
       </c>
       <c r="G58">
-        <v>0.2447038246189741</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2073864541078308</v>
+      </c>
+      <c r="H58">
+        <v>-0.3080070509895612</v>
+      </c>
+      <c r="I58">
+        <v>0.09526948896302403</v>
+      </c>
+      <c r="J58">
+        <v>-0.4873668686460154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01138973829216853</v>
+        <v>-0.02379721571317252</v>
       </c>
       <c r="C59">
-        <v>-0.2067696427906136</v>
+        <v>0.2004272217451847</v>
       </c>
       <c r="D59">
-        <v>-0.01510503089786948</v>
+        <v>-0.02589057344466</v>
       </c>
       <c r="E59">
-        <v>0.04333477636863051</v>
+        <v>0.05557417481548811</v>
       </c>
       <c r="F59">
-        <v>0.004303732097205265</v>
+        <v>-0.0195595026636225</v>
       </c>
       <c r="G59">
-        <v>-0.04087847411810899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.000874929392745737</v>
+      </c>
+      <c r="H59">
+        <v>0.03249919975513242</v>
+      </c>
+      <c r="I59">
+        <v>0.08061649200551095</v>
+      </c>
+      <c r="J59">
+        <v>-0.006257493005436256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1769837343900784</v>
+        <v>-0.1803967825662985</v>
       </c>
       <c r="C60">
-        <v>-0.123701079212737</v>
+        <v>0.06250372809304856</v>
       </c>
       <c r="D60">
-        <v>-0.01211157732040942</v>
+        <v>-0.03312868327235784</v>
       </c>
       <c r="E60">
-        <v>0.1757355767957407</v>
+        <v>0.1966568720682167</v>
       </c>
       <c r="F60">
-        <v>0.04319206413188192</v>
+        <v>-0.09217718369611319</v>
       </c>
       <c r="G60">
-        <v>-0.1655850393770459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04176750019928182</v>
+      </c>
+      <c r="H60">
+        <v>0.2346745161407399</v>
+      </c>
+      <c r="I60">
+        <v>-0.126367955975051</v>
+      </c>
+      <c r="J60">
+        <v>-0.003038044094187001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04898996822586486</v>
+        <v>-0.03800275595707665</v>
       </c>
       <c r="C61">
-        <v>0.00280278137772891</v>
+        <v>-0.01864985513534409</v>
       </c>
       <c r="D61">
-        <v>0.01429471422986539</v>
+        <v>-0.001391853158219396</v>
       </c>
       <c r="E61">
-        <v>0.046008543314218</v>
+        <v>0.03778866333696383</v>
       </c>
       <c r="F61">
-        <v>0.01626217689136797</v>
+        <v>-0.03018536536256268</v>
       </c>
       <c r="G61">
-        <v>-0.02236008539552031</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008400427352285054</v>
+      </c>
+      <c r="H61">
+        <v>-0.007260309944892025</v>
+      </c>
+      <c r="I61">
+        <v>-0.03173278739625213</v>
+      </c>
+      <c r="J61">
+        <v>-0.02325714708155017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03951493881833305</v>
+        <v>-0.02771280676085329</v>
       </c>
       <c r="C63">
-        <v>-0.01071692779525501</v>
+        <v>-0.01335099618844398</v>
       </c>
       <c r="D63">
-        <v>-0.008114642584446613</v>
+        <v>-0.009702496316860282</v>
       </c>
       <c r="E63">
-        <v>0.04287961746925605</v>
+        <v>0.02715096033129221</v>
       </c>
       <c r="F63">
-        <v>0.008796656273697327</v>
+        <v>-0.02510489881906265</v>
       </c>
       <c r="G63">
-        <v>0.01781086264182589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005864346784363124</v>
+      </c>
+      <c r="H63">
+        <v>-0.04591214199310522</v>
+      </c>
+      <c r="I63">
+        <v>0.03434789799801773</v>
+      </c>
+      <c r="J63">
+        <v>0.03859437177614705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09258185187722129</v>
+        <v>-0.06689400184839774</v>
       </c>
       <c r="C64">
-        <v>0.02209209549281162</v>
+        <v>-0.03840454907922001</v>
       </c>
       <c r="D64">
-        <v>-0.04549575867593124</v>
+        <v>-0.03100106569761553</v>
       </c>
       <c r="E64">
-        <v>0.07145369160035381</v>
+        <v>0.01268398794237909</v>
       </c>
       <c r="F64">
-        <v>0.08824147900659869</v>
+        <v>-0.07903677790574458</v>
       </c>
       <c r="G64">
-        <v>-0.04546430761479606</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06933513524449686</v>
+      </c>
+      <c r="H64">
+        <v>0.00310917352968756</v>
+      </c>
+      <c r="I64">
+        <v>0.01972620784488019</v>
+      </c>
+      <c r="J64">
+        <v>0.05690142663957729</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01336983119250589</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.003209330797024444</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0002748000821594446</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003311311221640152</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.007835025274210464</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.013586199131176</v>
+      </c>
+      <c r="H65">
+        <v>0.0005549963718714821</v>
+      </c>
+      <c r="I65">
+        <v>0.0004049571313356527</v>
+      </c>
+      <c r="J65">
+        <v>-0.003292075578199573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1019316647188032</v>
+        <v>-0.07242690045588543</v>
       </c>
       <c r="C66">
-        <v>0.01430080219302905</v>
+        <v>-0.04682583914451099</v>
       </c>
       <c r="D66">
-        <v>-0.02632394389900562</v>
+        <v>-0.04182609746600671</v>
       </c>
       <c r="E66">
-        <v>0.0872774038678629</v>
+        <v>0.06561196535425848</v>
       </c>
       <c r="F66">
-        <v>0.03382474742352058</v>
+        <v>-0.05255131383113799</v>
       </c>
       <c r="G66">
-        <v>-0.003706987615859676</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01579235320466103</v>
+      </c>
+      <c r="H66">
+        <v>-0.01807382945420444</v>
+      </c>
+      <c r="I66">
+        <v>-0.04213660479505301</v>
+      </c>
+      <c r="J66">
+        <v>0.01783570261376426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06014338733377268</v>
+        <v>-0.0403632040563435</v>
       </c>
       <c r="C67">
-        <v>-0.02027416867953123</v>
+        <v>0.00750704147181011</v>
       </c>
       <c r="D67">
-        <v>-0.005342319525387561</v>
+        <v>-0.005318000064324765</v>
       </c>
       <c r="E67">
-        <v>0.03393581009620789</v>
+        <v>0.02929215677087837</v>
       </c>
       <c r="F67">
-        <v>0.01119462108789799</v>
+        <v>-0.03061958359119639</v>
       </c>
       <c r="G67">
-        <v>0.03266291978738776</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03077417414266294</v>
+      </c>
+      <c r="H67">
+        <v>-0.005237885245330627</v>
+      </c>
+      <c r="I67">
+        <v>-0.03307751625481772</v>
+      </c>
+      <c r="J67">
+        <v>-0.01408675470248162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.009472141374589096</v>
+        <v>-0.03234166730850238</v>
       </c>
       <c r="C68">
-        <v>-0.2459812821214402</v>
+        <v>0.2349263534635394</v>
       </c>
       <c r="D68">
-        <v>0.002536697365607676</v>
+        <v>-0.01772666019939948</v>
       </c>
       <c r="E68">
-        <v>0.02787758012341747</v>
+        <v>0.04229608355482883</v>
       </c>
       <c r="F68">
-        <v>-0.0125016220753868</v>
+        <v>-0.01548322794996275</v>
       </c>
       <c r="G68">
-        <v>-0.0326749723117964</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01371888684409565</v>
+      </c>
+      <c r="H68">
+        <v>0.03885898887557837</v>
+      </c>
+      <c r="I68">
+        <v>0.1728515393837665</v>
+      </c>
+      <c r="J68">
+        <v>0.01025127200794813</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06564617852561555</v>
+        <v>-0.06884266965569413</v>
       </c>
       <c r="C69">
-        <v>0.004816154702343598</v>
+        <v>-0.01585336319719799</v>
       </c>
       <c r="D69">
-        <v>-0.02751433157057435</v>
+        <v>-0.0287795197942385</v>
       </c>
       <c r="E69">
-        <v>0.002309244188228116</v>
+        <v>0.01204555634055352</v>
       </c>
       <c r="F69">
-        <v>0.006353875859096871</v>
+        <v>-0.0004591142696820205</v>
       </c>
       <c r="G69">
-        <v>0.01649841199318733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0242542944982996</v>
+      </c>
+      <c r="H69">
+        <v>-0.0477155835571794</v>
+      </c>
+      <c r="I69">
+        <v>0.003429685183047797</v>
+      </c>
+      <c r="J69">
+        <v>0.007382919048184764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.002823236671419142</v>
+        <v>-0.03805742917613757</v>
       </c>
       <c r="C71">
-        <v>-0.249014305272099</v>
+        <v>0.24478251492972</v>
       </c>
       <c r="D71">
-        <v>0.007950737610402929</v>
+        <v>0.001155502877855398</v>
       </c>
       <c r="E71">
-        <v>0.0555554093526613</v>
+        <v>0.07382419604100303</v>
       </c>
       <c r="F71">
-        <v>-0.001207817884374879</v>
+        <v>-0.009962509089171784</v>
       </c>
       <c r="G71">
-        <v>-0.118968991955836</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.00953976482117192</v>
+      </c>
+      <c r="H71">
+        <v>0.05205514920101553</v>
+      </c>
+      <c r="I71">
+        <v>0.1480392147356029</v>
+      </c>
+      <c r="J71">
+        <v>-0.01998795633928873</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1066011486855557</v>
+        <v>-0.1145535441112072</v>
       </c>
       <c r="C72">
-        <v>-0.02306866595402762</v>
+        <v>0.002345255840421093</v>
       </c>
       <c r="D72">
-        <v>-0.03509711547744483</v>
+        <v>-0.05976777644658494</v>
       </c>
       <c r="E72">
-        <v>0.0769029800781635</v>
+        <v>0.05524843173504313</v>
       </c>
       <c r="F72">
-        <v>0.007171945943396933</v>
+        <v>-0.06863109239598371</v>
       </c>
       <c r="G72">
-        <v>0.03156475713010826</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02525289069563866</v>
+      </c>
+      <c r="H72">
+        <v>-0.00196724696488814</v>
+      </c>
+      <c r="I72">
+        <v>0.004624436407637187</v>
+      </c>
+      <c r="J72">
+        <v>-0.08780194818463788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2684360219042804</v>
+        <v>-0.2726654306514871</v>
       </c>
       <c r="C73">
-        <v>-0.2192206740728309</v>
+        <v>0.130988384067253</v>
       </c>
       <c r="D73">
-        <v>0.03922223867013092</v>
+        <v>-0.01335446721834953</v>
       </c>
       <c r="E73">
-        <v>0.2870126898855637</v>
+        <v>0.3055967107773609</v>
       </c>
       <c r="F73">
-        <v>0.02692573356898799</v>
+        <v>-0.1313694432910233</v>
       </c>
       <c r="G73">
-        <v>-0.3925421179852173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.09996833577498571</v>
+      </c>
+      <c r="H73">
+        <v>0.4253045083067429</v>
+      </c>
+      <c r="I73">
+        <v>-0.3673673368136381</v>
+      </c>
+      <c r="J73">
+        <v>-0.1572929046777744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1548487960340874</v>
+        <v>-0.149985708090429</v>
       </c>
       <c r="C74">
-        <v>-0.01005730157805883</v>
+        <v>-0.016805444698492</v>
       </c>
       <c r="D74">
-        <v>-0.0530594889546889</v>
+        <v>-0.04866123184963295</v>
       </c>
       <c r="E74">
-        <v>0.004851258097850171</v>
+        <v>-0.02068804483474604</v>
       </c>
       <c r="F74">
-        <v>-0.03778450886698981</v>
+        <v>0.0227124715121389</v>
       </c>
       <c r="G74">
-        <v>-0.01466659065859219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.009056168826846891</v>
+      </c>
+      <c r="H74">
+        <v>0.01849530307985377</v>
+      </c>
+      <c r="I74">
+        <v>-0.01752380627435859</v>
+      </c>
+      <c r="J74">
+        <v>0.09591457004942051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2378084991127824</v>
+        <v>-0.2424998556499614</v>
       </c>
       <c r="C75">
-        <v>-0.01641382925800796</v>
+        <v>-0.02955340051602804</v>
       </c>
       <c r="D75">
-        <v>-0.07012831652521437</v>
+        <v>-0.1002625739351254</v>
       </c>
       <c r="E75">
-        <v>-0.1103376729436106</v>
+        <v>-0.08749737113033572</v>
       </c>
       <c r="F75">
-        <v>-0.03837197587280917</v>
+        <v>0.09087868703266551</v>
       </c>
       <c r="G75">
-        <v>0.002206290217386763</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01307161390052624</v>
+      </c>
+      <c r="H75">
+        <v>0.01464079945997595</v>
+      </c>
+      <c r="I75">
+        <v>0.02380390727717486</v>
+      </c>
+      <c r="J75">
+        <v>0.1549850108946966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2403287135740701</v>
+        <v>-0.260242840759104</v>
       </c>
       <c r="C76">
-        <v>-0.01806888146232647</v>
+        <v>-0.01951208183922541</v>
       </c>
       <c r="D76">
-        <v>-0.1057202917807412</v>
+        <v>-0.1297767278345532</v>
       </c>
       <c r="E76">
-        <v>-0.07768289698820716</v>
+        <v>-0.11740877147051</v>
       </c>
       <c r="F76">
-        <v>-0.04241846304448305</v>
+        <v>0.08604091552376782</v>
       </c>
       <c r="G76">
-        <v>-0.009041870252925395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.02793698629713615</v>
+      </c>
+      <c r="H76">
+        <v>0.01454722526175295</v>
+      </c>
+      <c r="I76">
+        <v>-0.04961452715246874</v>
+      </c>
+      <c r="J76">
+        <v>0.1774408476710896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1248238716343135</v>
+        <v>-0.1300383035110997</v>
       </c>
       <c r="C77">
-        <v>0.01290811365188845</v>
+        <v>-0.04509622217925676</v>
       </c>
       <c r="D77">
-        <v>0.08039469068898968</v>
+        <v>0.0552404367845614</v>
       </c>
       <c r="E77">
-        <v>0.1631648367160639</v>
+        <v>0.1119691958449174</v>
       </c>
       <c r="F77">
-        <v>-0.007077026736991922</v>
+        <v>-0.128909545796216</v>
       </c>
       <c r="G77">
-        <v>0.130492160016892</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03085247544862045</v>
+      </c>
+      <c r="H77">
+        <v>-0.1585176693011319</v>
+      </c>
+      <c r="I77">
+        <v>0.1723011761360911</v>
+      </c>
+      <c r="J77">
+        <v>0.08307077668194622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.0941434942665289</v>
+        <v>-0.08896949361371174</v>
       </c>
       <c r="C78">
-        <v>0.02609096218975398</v>
+        <v>-0.05297109452573708</v>
       </c>
       <c r="D78">
-        <v>0.02526360272784247</v>
+        <v>0.003727037496514743</v>
       </c>
       <c r="E78">
-        <v>0.07262621941369424</v>
+        <v>0.05023114128054847</v>
       </c>
       <c r="F78">
-        <v>0.006773291228995649</v>
+        <v>-0.07802322536053567</v>
       </c>
       <c r="G78">
-        <v>-0.02715344160230832</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.001925928453860504</v>
+      </c>
+      <c r="H78">
+        <v>-0.01344088837416804</v>
+      </c>
+      <c r="I78">
+        <v>0.03971556887510902</v>
+      </c>
+      <c r="J78">
+        <v>0.01261650106057298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07049928473486339</v>
+        <v>-0.1222318059872203</v>
       </c>
       <c r="C80">
-        <v>-0.01110735140529477</v>
+        <v>0.1393760040424751</v>
       </c>
       <c r="D80">
-        <v>0.01737990116378776</v>
+        <v>0.2063244860344337</v>
       </c>
       <c r="E80">
-        <v>0.001591213052593876</v>
+        <v>-0.6765971795573025</v>
       </c>
       <c r="F80">
-        <v>-0.0409174728158433</v>
+        <v>-0.6528018196769902</v>
       </c>
       <c r="G80">
-        <v>0.3122536560555801</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02812303347123433</v>
+      </c>
+      <c r="H80">
+        <v>0.1035313998586142</v>
+      </c>
+      <c r="I80">
+        <v>-0.06731074198623929</v>
+      </c>
+      <c r="J80">
+        <v>-0.09408856357750545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1648315704484222</v>
+        <v>-0.1733427899861608</v>
       </c>
       <c r="C81">
-        <v>-0.008913063268716503</v>
+        <v>-0.01400788003860277</v>
       </c>
       <c r="D81">
-        <v>-0.06203268928154423</v>
+        <v>-0.0858464816129907</v>
       </c>
       <c r="E81">
-        <v>-0.1154519160220143</v>
+        <v>-0.1017913578951548</v>
       </c>
       <c r="F81">
-        <v>-0.06750863358603067</v>
+        <v>0.1020721006248802</v>
       </c>
       <c r="G81">
-        <v>-0.002741774204189916</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02009284055295651</v>
+      </c>
+      <c r="H81">
+        <v>0.01139727721102833</v>
+      </c>
+      <c r="I81">
+        <v>0.0013715872098369</v>
+      </c>
+      <c r="J81">
+        <v>0.09657506973067705</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.0818173816409654</v>
+        <v>-0.06481603255617238</v>
       </c>
       <c r="C83">
-        <v>0.02924273252563705</v>
+        <v>-0.03736399538218484</v>
       </c>
       <c r="D83">
-        <v>0.09846116979628917</v>
+        <v>0.04380066567324405</v>
       </c>
       <c r="E83">
-        <v>0.03739439371362225</v>
+        <v>0.0574218243356215</v>
       </c>
       <c r="F83">
-        <v>0.06669930524954769</v>
+        <v>-0.0262567555468352</v>
       </c>
       <c r="G83">
-        <v>0.02889074045631132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04657935111313773</v>
+      </c>
+      <c r="H83">
+        <v>-0.04039316484722921</v>
+      </c>
+      <c r="I83">
+        <v>0.02200398787994141</v>
+      </c>
+      <c r="J83">
+        <v>0.08643298795670432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2462888138455858</v>
+        <v>-0.2542640138109532</v>
       </c>
       <c r="C85">
-        <v>0.04900593021711573</v>
+        <v>-0.064073948889091</v>
       </c>
       <c r="D85">
-        <v>-0.05964538483257906</v>
+        <v>-0.08401793754379136</v>
       </c>
       <c r="E85">
-        <v>-0.1176471060885842</v>
+        <v>-0.1177352805225898</v>
       </c>
       <c r="F85">
-        <v>-0.02534989069709313</v>
+        <v>0.08363858377622647</v>
       </c>
       <c r="G85">
-        <v>0.0381127362249507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01432143252010287</v>
+      </c>
+      <c r="H85">
+        <v>-0.02723599494764718</v>
+      </c>
+      <c r="I85">
+        <v>0.01618921737889803</v>
+      </c>
+      <c r="J85">
+        <v>0.176302647245593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04762206242857408</v>
+        <v>-0.03101616536274427</v>
       </c>
       <c r="C86">
-        <v>0.03125585983908351</v>
+        <v>-0.04311318317727775</v>
       </c>
       <c r="D86">
-        <v>-0.0004905709936179843</v>
+        <v>-0.003649963912435758</v>
       </c>
       <c r="E86">
-        <v>0.05279089045234966</v>
+        <v>0.028435236602608</v>
       </c>
       <c r="F86">
-        <v>-0.01011263962237872</v>
+        <v>-0.06029971271735386</v>
       </c>
       <c r="G86">
-        <v>0.02224268734987145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.007702003669057955</v>
+      </c>
+      <c r="H86">
+        <v>-0.03817693879970422</v>
+      </c>
+      <c r="I86">
+        <v>0.06766750427997155</v>
+      </c>
+      <c r="J86">
+        <v>-0.02560335035818836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02929523447106961</v>
+        <v>-0.0382731701492949</v>
       </c>
       <c r="C87">
-        <v>-0.0546504632856934</v>
+        <v>0.02526333990122547</v>
       </c>
       <c r="D87">
-        <v>-0.01065341242162028</v>
+        <v>-0.004444506544919226</v>
       </c>
       <c r="E87">
-        <v>0.05881804808998655</v>
+        <v>0.06667386998916111</v>
       </c>
       <c r="F87">
-        <v>0.04128964428860741</v>
+        <v>-0.06683913195043696</v>
       </c>
       <c r="G87">
-        <v>-0.1294589353247949</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02799904516690345</v>
+      </c>
+      <c r="H87">
+        <v>0.007306093169469961</v>
+      </c>
+      <c r="I87">
+        <v>-0.002397325871301873</v>
+      </c>
+      <c r="J87">
+        <v>-0.09497560111045936</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03933334547988027</v>
+        <v>-0.02465137279613296</v>
       </c>
       <c r="C88">
-        <v>0.01578821770626471</v>
+        <v>-0.01414635508767358</v>
       </c>
       <c r="D88">
-        <v>-0.003738086286560024</v>
+        <v>-0.007278949728087267</v>
       </c>
       <c r="E88">
-        <v>0.003201377728212842</v>
+        <v>-0.01750574194618569</v>
       </c>
       <c r="F88">
-        <v>-0.007190057917296571</v>
+        <v>-0.02227223170818147</v>
       </c>
       <c r="G88">
-        <v>0.06264029293172489</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02625498924954933</v>
+      </c>
+      <c r="H88">
+        <v>-0.04756445926339236</v>
+      </c>
+      <c r="I88">
+        <v>-0.01547712468270309</v>
+      </c>
+      <c r="J88">
+        <v>-0.02701215305619181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02095670846106349</v>
+        <v>-0.05105487443652487</v>
       </c>
       <c r="C89">
-        <v>-0.4279006270069304</v>
+        <v>0.396124346741043</v>
       </c>
       <c r="D89">
-        <v>0.09690220957250822</v>
+        <v>0.02137948278528353</v>
       </c>
       <c r="E89">
-        <v>-0.04034822593999651</v>
+        <v>0.06271855214876956</v>
       </c>
       <c r="F89">
-        <v>0.01795321183462378</v>
+        <v>0.02541476611363075</v>
       </c>
       <c r="G89">
-        <v>0.02490716200952226</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.06647763346663563</v>
+      </c>
+      <c r="H89">
+        <v>-0.003924336493227762</v>
+      </c>
+      <c r="I89">
+        <v>0.2928023536262878</v>
+      </c>
+      <c r="J89">
+        <v>0.06362821611775847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02316386418596154</v>
+        <v>-0.03067898219125805</v>
       </c>
       <c r="C90">
-        <v>-0.3043928259682734</v>
+        <v>0.3278485820125451</v>
       </c>
       <c r="D90">
-        <v>0.0224169798573643</v>
+        <v>0.006499520582227805</v>
       </c>
       <c r="E90">
-        <v>0.02334478337500194</v>
+        <v>0.03619041001095599</v>
       </c>
       <c r="F90">
-        <v>0.002331614884907225</v>
+        <v>-0.006568877299106501</v>
       </c>
       <c r="G90">
-        <v>-0.07503129431141675</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01424652699331825</v>
+      </c>
+      <c r="H90">
+        <v>0.04688680169867591</v>
+      </c>
+      <c r="I90">
+        <v>0.2011267645048946</v>
+      </c>
+      <c r="J90">
+        <v>0.02745960214674692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3126574921335378</v>
+        <v>-0.3165750804451586</v>
       </c>
       <c r="C91">
-        <v>0.01615264474425189</v>
+        <v>-0.04883590809473289</v>
       </c>
       <c r="D91">
-        <v>-0.08134763340610805</v>
+        <v>-0.1029492427620885</v>
       </c>
       <c r="E91">
-        <v>-0.2510115831837876</v>
+        <v>-0.1997884143742693</v>
       </c>
       <c r="F91">
-        <v>-0.1105457220747073</v>
+        <v>0.193628603271278</v>
       </c>
       <c r="G91">
-        <v>0.1217683427399001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02774424597319779</v>
+      </c>
+      <c r="H91">
+        <v>0.01030898730846921</v>
+      </c>
+      <c r="I91">
+        <v>0.01567949552156148</v>
+      </c>
+      <c r="J91">
+        <v>0.3378101443234732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.036291859035897</v>
+        <v>-0.07086699628808697</v>
       </c>
       <c r="C92">
-        <v>-0.4411260257528948</v>
+        <v>0.4640884039170838</v>
       </c>
       <c r="D92">
-        <v>0.1954790823635509</v>
+        <v>0.04274320897279154</v>
       </c>
       <c r="E92">
-        <v>-0.1246939451357068</v>
+        <v>-0.0538622146429274</v>
       </c>
       <c r="F92">
-        <v>-0.09203746293272475</v>
+        <v>0.1461671336445194</v>
       </c>
       <c r="G92">
-        <v>0.5229459854453911</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02700363406492954</v>
+      </c>
+      <c r="H92">
+        <v>-0.5834468437883626</v>
+      </c>
+      <c r="I92">
+        <v>-0.6118504231631953</v>
+      </c>
+      <c r="J92">
+        <v>0.01539877381997108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.03762389715090769</v>
+        <v>-0.02927437899236952</v>
       </c>
       <c r="C93">
-        <v>-0.3702510713259391</v>
+        <v>0.408098968895997</v>
       </c>
       <c r="D93">
-        <v>0.0664425585720817</v>
+        <v>0.02551290511808583</v>
       </c>
       <c r="E93">
-        <v>-0.05818594530425667</v>
+        <v>0.02350554009974901</v>
       </c>
       <c r="F93">
-        <v>-0.01811605374383421</v>
+        <v>0.05900872750472223</v>
       </c>
       <c r="G93">
-        <v>0.01062260377576095</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03882433321756049</v>
+      </c>
+      <c r="H93">
+        <v>0.05295114809136522</v>
+      </c>
+      <c r="I93">
+        <v>0.2059245073790122</v>
+      </c>
+      <c r="J93">
+        <v>0.05089955213441345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3059971058741147</v>
+        <v>-0.3236122144865472</v>
       </c>
       <c r="C94">
-        <v>-0.02676223205926487</v>
+        <v>-0.01540603238917479</v>
       </c>
       <c r="D94">
-        <v>-0.09538205202626558</v>
+        <v>-0.1686202100665103</v>
       </c>
       <c r="E94">
-        <v>-0.4409467596733747</v>
+        <v>-0.2481850077889733</v>
       </c>
       <c r="F94">
-        <v>-0.4387680126816057</v>
+        <v>0.3113127949105282</v>
       </c>
       <c r="G94">
-        <v>-0.1188860029036703</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.224487091342478</v>
+      </c>
+      <c r="H94">
+        <v>-0.03220326670289175</v>
+      </c>
+      <c r="I94">
+        <v>0.2246559448565445</v>
+      </c>
+      <c r="J94">
+        <v>-0.5381950984651839</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1964177842722772</v>
+        <v>-0.1450206577951448</v>
       </c>
       <c r="C95">
-        <v>-0.04570636720101662</v>
+        <v>-0.05914834366040978</v>
       </c>
       <c r="D95">
-        <v>-0.02439323540282887</v>
+        <v>-0.03910167309800767</v>
       </c>
       <c r="E95">
-        <v>-0.3738069065460053</v>
+        <v>0.009171550939510928</v>
       </c>
       <c r="F95">
-        <v>0.8445883318336264</v>
+        <v>0.07699565104578587</v>
       </c>
       <c r="G95">
-        <v>0.05820816535543369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9214811047868876</v>
+      </c>
+      <c r="H95">
+        <v>0.02727583611179078</v>
+      </c>
+      <c r="I95">
+        <v>-0.00681002704492087</v>
+      </c>
+      <c r="J95">
+        <v>-0.2580324281151959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2096321875273358</v>
+        <v>-0.2064851005052554</v>
       </c>
       <c r="C98">
-        <v>-0.1368587254935001</v>
+        <v>0.07844627578676579</v>
       </c>
       <c r="D98">
-        <v>0.02715895324388272</v>
+        <v>-0.0004850494056670412</v>
       </c>
       <c r="E98">
-        <v>0.09240698059197326</v>
+        <v>0.1759196493147807</v>
       </c>
       <c r="F98">
-        <v>0.02546957213773571</v>
+        <v>-0.0342614575668009</v>
       </c>
       <c r="G98">
-        <v>-0.2622870620226226</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.04368624380468653</v>
+      </c>
+      <c r="H98">
+        <v>0.2954197859895518</v>
+      </c>
+      <c r="I98">
+        <v>-0.2227980215675284</v>
+      </c>
+      <c r="J98">
+        <v>-0.02978754988757618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02113408324704951</v>
+        <v>-0.01279200676271528</v>
       </c>
       <c r="C101">
-        <v>0.01611449983973777</v>
+        <v>-0.02922906601943204</v>
       </c>
       <c r="D101">
-        <v>-0.01395341384037353</v>
+        <v>-0.02200085104666913</v>
       </c>
       <c r="E101">
-        <v>0.04486517079823903</v>
+        <v>0.03311833323328318</v>
       </c>
       <c r="F101">
-        <v>0.01260174594813413</v>
+        <v>-0.06352998037788032</v>
       </c>
       <c r="G101">
-        <v>0.0461302345584301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01083141935868999</v>
+      </c>
+      <c r="H101">
+        <v>-0.1178651607202195</v>
+      </c>
+      <c r="I101">
+        <v>0.01577081932450404</v>
+      </c>
+      <c r="J101">
+        <v>-0.1005564932367765</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1207183911477367</v>
+        <v>-0.1207546878952052</v>
       </c>
       <c r="C102">
-        <v>1.543527498655135e-05</v>
+        <v>-0.02908111811680728</v>
       </c>
       <c r="D102">
-        <v>-0.05117561529306631</v>
+        <v>-0.0518857037909107</v>
       </c>
       <c r="E102">
-        <v>-0.07216686981508209</v>
+        <v>-0.07554560438788303</v>
       </c>
       <c r="F102">
-        <v>0.01412656924580115</v>
+        <v>0.04636069433532804</v>
       </c>
       <c r="G102">
-        <v>0.01270142772602452</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03296353612077475</v>
+      </c>
+      <c r="H102">
+        <v>0.003601830206240971</v>
+      </c>
+      <c r="I102">
+        <v>0.02803761283129276</v>
+      </c>
+      <c r="J102">
+        <v>0.06762855227629765</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01593013812069298</v>
+        <v>-0.02496012739009373</v>
       </c>
       <c r="C103">
-        <v>-0.001668958394216687</v>
+        <v>-0.002529288247229862</v>
       </c>
       <c r="D103">
-        <v>-0.01693442904140376</v>
+        <v>-0.01690725905217268</v>
       </c>
       <c r="E103">
-        <v>-0.0259708244135464</v>
+        <v>-0.02751822652548506</v>
       </c>
       <c r="F103">
-        <v>-0.01297259478703875</v>
+        <v>0.001445097483445397</v>
       </c>
       <c r="G103">
-        <v>-0.009851187338755087</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01488818901524708</v>
+      </c>
+      <c r="H103">
+        <v>-0.001973669377862314</v>
+      </c>
+      <c r="I103">
+        <v>0.02450876300807324</v>
+      </c>
+      <c r="J103">
+        <v>0.006003393821279574</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
